--- a/biology/Zoologie/Drysdalia/Drysdalia.xlsx
+++ b/biology/Zoologie/Drysdalia/Drysdalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drysdalia est un genre de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drysdalia est un genre de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont venimeuses, mais pas considérées comme mortelles. Ce sont des serpents de relativement petite taille avec une moyenne d'environ 50 cm de longueur. Ils sont normalement de couleur brune et habitent les forêts, les marais et de landes où ils se nourrissent de grenouilles et de lézards.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (16 août 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (16 août 2011) :
 Drysdalia coronoides (Günther, 1858)
 Drysdalia mastersii (Krefft, 1866)
 Drysdalia rhodogaster (Jan, 1873)</t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Drysdalia a été donné en l'honneur de sir George Russell Drysdale, un artiste australien qui a notamment accompagné l'auteur en Tasmanie quand il a collecté les spécimens pour la description de ce genre[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Drysdalia a été donné en l'honneur de sir George Russell Drysdale, un artiste australien qui a notamment accompagné l'auteur en Tasmanie quand il a collecté les spécimens pour la description de ce genre.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Worrell, 1961 : Herpetological Name Changes. West Australian Naturalist, vol. 8, p. 18-27 (texte intégral).</t>
         </is>
